--- a/SSDMS_Requirements/SCGJ_Updated_Excel/Candidate.xlsx
+++ b/SSDMS_Requirements/SCGJ_Updated_Excel/Candidate.xlsx
@@ -145,9 +145,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -206,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -214,11 +213,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -234,22 +262,26 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -556,7 +588,7 @@
     <col min="2" max="2" width="22.21875" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" style="7" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14" style="12" customWidth="1"/>
     <col min="6" max="6" width="21.88671875" style="7" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" style="7" customWidth="1"/>
     <col min="8" max="8" width="17.21875" style="7" customWidth="1"/>
@@ -568,11 +600,11 @@
     <col min="14" max="14" width="22.6640625" style="7" customWidth="1"/>
     <col min="15" max="16" width="8.88671875" style="7"/>
     <col min="17" max="17" width="18.5546875" style="7" customWidth="1"/>
-    <col min="18" max="18" width="16.44140625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="19" style="7" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="24.109375" style="7" customWidth="1"/>
     <col min="20" max="20" width="15.77734375" style="7" customWidth="1"/>
-    <col min="21" max="21" width="19.88671875" style="7" customWidth="1"/>
-    <col min="22" max="35" width="8.88671875" style="17"/>
+    <col min="21" max="21" width="19.88671875" style="16" customWidth="1"/>
+    <col min="22" max="35" width="8.88671875" style="9"/>
     <col min="36" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
@@ -589,7 +621,7 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -601,16 +633,16 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -619,16 +651,16 @@
       <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="13" t="s">
         <v>15</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -637,72 +669,72 @@
       <c r="T1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="20" t="s">
         <v>17</v>
       </c>
     </row>
@@ -719,7 +751,7 @@
       <c r="D3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>35192</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -758,7 +790,7 @@
       <c r="Q3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="14">
         <v>42767</v>
       </c>
       <c r="S3" s="5" t="s">
@@ -767,7 +799,7 @@
       <c r="T3" s="5">
         <v>369900</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="16">
         <v>123</v>
       </c>
     </row>

--- a/SSDMS_Requirements/SCGJ_Updated_Excel/Candidate.xlsx
+++ b/SSDMS_Requirements/SCGJ_Updated_Excel/Candidate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6552"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>candidateName</t>
   </si>
@@ -88,39 +88,6 @@
   </si>
   <si>
     <t>Placed/Unplaced</t>
-  </si>
-  <si>
-    <t>Vikesh Patel</t>
-  </si>
-  <si>
-    <t>WB-2016-20</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>M.Chithambaram</t>
-  </si>
-  <si>
-    <t>vikeshpatel638@gmail.com</t>
-  </si>
-  <si>
-    <t>11th to 12th</t>
-  </si>
-  <si>
-    <t>A-59 Gali no. 10 part-3 sonia vihar delhi 94</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes </t>
-  </si>
-  <si>
-    <t>Unplaced</t>
-  </si>
-  <si>
-    <t>Employed at Other Firm</t>
   </si>
   <si>
     <t>candidateDetailsId</t>
@@ -145,10 +112,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +136,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -223,20 +199,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -246,48 +217,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -576,235 +569,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14" style="12" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="31.109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="54.6640625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="20.5546875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" style="7" customWidth="1"/>
-    <col min="15" max="16" width="8.88671875" style="7"/>
-    <col min="17" max="17" width="18.5546875" style="7" customWidth="1"/>
-    <col min="18" max="18" width="16.44140625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="24.109375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="15.77734375" style="7" customWidth="1"/>
-    <col min="21" max="21" width="19.88671875" style="16" customWidth="1"/>
-    <col min="22" max="35" width="8.88671875" style="9"/>
-    <col min="36" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="20.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="54.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="18.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="24.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.77734375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="19.88671875" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:21" s="15" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>38</v>
+      <c r="T1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:21" s="15" customFormat="1">
+      <c r="A2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="B2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="F2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="17" t="s">
+      <c r="J2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="12" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="5">
-        <v>11232573</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="11">
-        <v>35192</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="6">
-        <v>439558841246</v>
-      </c>
-      <c r="H3" s="5">
-        <v>7408671728</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="5">
-        <v>110094</v>
-      </c>
-      <c r="M3" s="5">
-        <v>49</v>
-      </c>
-      <c r="N3" s="5">
-        <v>60.75</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="14">
-        <v>42767</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="5">
-        <v>369900</v>
-      </c>
-      <c r="U3" s="16">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C97D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C97D" sheet="1" objects="1" scenarios="1" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/SSDMS_Requirements/SCGJ_Updated_Excel/Candidate.xlsx
+++ b/SSDMS_Requirements/SCGJ_Updated_Excel/Candidate.xlsx
@@ -217,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -266,6 +266,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,7 +578,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -607,7 +613,7 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -666,8 +672,8 @@
       </c>
     </row>
     <row r="2" spans="1:21" s="15" customFormat="1">
-      <c r="A2" s="12" t="s">
-        <v>17</v>
+      <c r="A2" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>28</v>
@@ -733,7 +739,7 @@
   </sheetData>
   <sheetProtection password="C97D" sheet="1" objects="1" scenarios="1" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
